--- a/biology/Botanique/Cylindre_central/Cylindre_central.xlsx
+++ b/biology/Botanique/Cylindre_central/Cylindre_central.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Le cylindre central, appelé aussi cylindre vasculaire ou stèle, est la partie au centre de la tige et des racines des plantes vasculaires (en vert dans le schéma ci-dessous). Elle contient la moelle et les vaisseaux conducteurs de xylème (les vaisseaux, en magenta), et de phloème (les tubes criblés, en bleu ciel).
 L'évolution des stèles selon leur structure peut se définir comme suit :
@@ -494,7 +506,7 @@
 Solénostèle :  quand apparaissent dans la tige des fenêtres foliaires, le cylindre s'ouvre et des parties conductrices s'isolent pour conduire dans les feuilles. Elle est présente chez certaines fougères.
 Dictyostèle : les fenêtres foliaires sont si nombreuses qu'il est quasiment impossible de repérer la structure cylindrique initiale. Elle n'est présente aujourd'hui que chez des fougères.
 Eustèle : Stèle constituée de faisceaux, association de xylèmes et de phloèmes. Ce type de stèle est présent chez les spermaphytes, qui constituent la majorité des plantes actuelles.
-Atactostèle : coexistence de multiples faisceaux disposés communément en deux ou plusieurs cercles concentriques, les faisceaux les plus gros étant les plus internes. Se rencontre chez la plupart des Monocotylédones (et quelques Dicotylédones)[1].</t>
+Atactostèle : coexistence de multiples faisceaux disposés communément en deux ou plusieurs cercles concentriques, les faisceaux les plus gros étant les plus internes. Se rencontre chez la plupart des Monocotylédones (et quelques Dicotylédones).</t>
         </is>
       </c>
     </row>
